--- a/Vue20200516/vue01docs/Vue정리-20200515.xlsx
+++ b/Vue20200516/vue01docs/Vue정리-20200515.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200515.Vue.실습용\tis수업자료\Vue20200516\vue01docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -435,10 +440,6 @@
   </si>
   <si>
     <t>&lt;template&gt;&lt;/template&gt; 태그를 사용하는 방법. 파일로 분리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,44 +707,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vue.component('global-component', {
-    name: "global-component",
-    props: [ ],
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data : function() { return { }; },</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    template: '&lt;div&gt;전역 컴포넌트&lt;/div&gt;',
-    methods: { },
-    computed: { },
-    // components : { },
-    watch: { },  
-});</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">new Vue({
     el: "#app",
     </t>
@@ -776,44 +739,6 @@
     components: { },
     watch: { },
 });</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">var local = {
-    name: "local-component",
-    props: [ ],
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data : function() { return { }; },</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    template : "&lt;div&gt;지역 컴포넌트&lt;/div&gt;",
-    methods: { },
-    computed: { },
-    // components : { },
-    watch: { },
-};</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -953,12 +878,90 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vue.component('global-component', {
+    props: [ ],
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data : function() { return { }; },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    template: '&lt;div&gt;전역 컴포넌트&lt;/div&gt;',
+    methods: { },
+    computed: { },
+    // components : { },
+    watch: { },  
+});</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var local = {
+    props: [ ],
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data : function() { return { }; },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    template : "&lt;div&gt;지역 컴포넌트&lt;/div&gt;",
+    methods: { },
+    computed: { },
+    // components : { },
+    watch: { },
+};</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template 태그 / 파일단위의 컴포넌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,6 +1298,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3298,7 +3304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3333,7 +3339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3544,11 +3550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -3558,7 +3564,7 @@
     <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -3571,7 +3577,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.25">
       <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
@@ -3584,7 +3590,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="26.25">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -3597,7 +3603,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3605,7 +3611,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3613,7 +3619,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3696,7 +3702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3726,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -3758,7 +3764,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -3767,7 +3773,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3778,7 +3784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
@@ -3787,21 +3793,21 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="51.75">
       <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -3810,7 +3816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34.5">
       <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3819,14 +3825,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -3835,18 +3841,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="3" customFormat="1"/>
+    <row r="12" spans="1:3" s="3" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
@@ -3866,116 +3872,116 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:A20"/>
@@ -3995,13 +4001,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
@@ -4025,13 +4031,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5">
       <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="23" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="23" t="s">
         <v>87</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5">
       <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="42.75">
       <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -4097,7 +4103,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" bestFit="1" customWidth="1"/>
@@ -4105,7 +4111,7 @@
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" customFormat="1" ht="26.25">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -4117,7 +4123,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" customFormat="1" ht="26.25">
       <c r="A2" s="38" t="s">
         <v>58</v>
       </c>
@@ -4129,7 +4135,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" customFormat="1" ht="26.25">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -4141,7 +4147,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" customFormat="1" ht="26.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4151,7 +4157,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -4165,7 +4171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="42.75">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -4175,7 +4181,7 @@
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42.75">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
@@ -4185,7 +4191,7 @@
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
@@ -4193,7 +4199,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4201,13 +4207,13 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -4215,13 +4221,13 @@
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="34.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.5">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.5">
       <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
@@ -4263,13 +4269,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="57">
       <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="21" t="s">
         <v>95</v>
       </c>
@@ -4297,13 +4303,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="17.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="99.75">
       <c r="A20" s="21" t="s">
         <v>65</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="57">
       <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
@@ -4343,40 +4349,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="33" t="s">
         <v>62</v>
       </c>
@@ -4387,24 +4393,24 @@
         <v>63</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="297" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="297">
       <c r="B7" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="30" t="s">
         <v>103</v>
       </c>
@@ -4418,7 +4424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -4426,49 +4432,49 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18">
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="18">
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18">
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18">
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="18">
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18">
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="18">
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="18">
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="18">
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="18">
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5">
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" ht="18">
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5">
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" ht="18">
       <c r="E24" s="32"/>
     </row>
   </sheetData>
@@ -4486,7 +4492,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
@@ -4495,125 +4501,125 @@
     <col min="6" max="6" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="198" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="198">
       <c r="A7" s="37"/>
       <c r="B7" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>127</v>
-      </c>
       <c r="F7" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="82.5">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>127</v>
-      </c>
       <c r="F8" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="165">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>119</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="148.5">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="82.5">
       <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Vue20200516/vue01docs/Vue정리-20200515.xlsx
+++ b/Vue20200516/vue01docs/Vue정리-20200515.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200515.Vue.실습용\tis수업자료\Vue20200516\vue01docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -440,6 +435,10 @@
   </si>
   <si>
     <t>&lt;template&gt;&lt;/template&gt; 태그를 사용하는 방법. 파일로 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,6 +706,44 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Vue.component('global-component', {
+    name: "global-component",
+    props: [ ],
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data : function() { return { }; },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    template: '&lt;div&gt;전역 컴포넌트&lt;/div&gt;',
+    methods: { },
+    computed: { },
+    // components : { },
+    watch: { },  
+});</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">new Vue({
     el: "#app",
     </t>
@@ -739,6 +776,44 @@
     components: { },
     watch: { },
 });</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var local = {
+    name: "local-component",
+    props: [ ],
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data : function() { return { }; },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    template : "&lt;div&gt;지역 컴포넌트&lt;/div&gt;",
+    methods: { },
+    computed: { },
+    // components : { },
+    watch: { },
+};</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -878,90 +953,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vue.component('global-component', {
-    props: [ ],
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data : function() { return { }; },</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    template: '&lt;div&gt;전역 컴포넌트&lt;/div&gt;',
-    methods: { },
-    computed: { },
-    // components : { },
-    watch: { },  
-});</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">var local = {
-    props: [ ],
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data : function() { return { }; },</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    template : "&lt;div&gt;지역 컴포넌트&lt;/div&gt;",
-    methods: { },
-    computed: { },
-    // components : { },
-    watch: { },
-};</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template 태그 / 파일단위의 컴포넌트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,9 +1295,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3304,7 +3298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3339,7 +3333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3550,11 +3544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -3564,7 +3558,7 @@
     <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -3577,7 +3571,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
@@ -3590,7 +3584,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="26.25">
+    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -3603,7 +3597,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25">
+    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3611,7 +3605,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3619,7 +3613,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3655,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -3675,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -3691,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3702,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3715,7 +3709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3726,7 +3720,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -3764,7 +3758,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -3773,7 +3767,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3784,7 +3778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
@@ -3793,21 +3787,21 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="51.75">
+    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -3816,7 +3810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5">
+    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3825,14 +3819,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -3841,18 +3835,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1"/>
-    <row r="12" spans="1:3" s="3" customFormat="1">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
@@ -3872,116 +3866,116 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:A20"/>
@@ -4001,13 +3995,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
@@ -4015,7 +4009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
@@ -4031,13 +4025,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>89</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>87</v>
       </c>
@@ -4053,7 +4047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
@@ -4061,7 +4055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75">
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
@@ -4069,7 +4063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -4103,7 +4097,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" bestFit="1" customWidth="1"/>
@@ -4111,7 +4105,7 @@
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="26.25">
+    <row r="1" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -4123,7 +4117,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="26.25">
+    <row r="2" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>58</v>
       </c>
@@ -4135,7 +4129,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="26.25">
+    <row r="3" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -4147,7 +4141,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="26.25">
+    <row r="4" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4157,7 +4151,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -4171,7 +4165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -4181,7 +4175,7 @@
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
@@ -4191,7 +4185,7 @@
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
@@ -4199,7 +4193,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4207,13 +4201,13 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -4221,13 +4215,13 @@
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="34.5">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4241,7 +4235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -4255,7 +4249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
@@ -4269,13 +4263,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25">
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="57">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
@@ -4289,7 +4283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>95</v>
       </c>
@@ -4303,13 +4297,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25">
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75">
+    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>65</v>
       </c>
@@ -4321,7 +4315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
@@ -4349,40 +4343,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>62</v>
       </c>
@@ -4393,24 +4387,24 @@
         <v>63</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="297">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="297" x14ac:dyDescent="0.3">
       <c r="B7" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>103</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -4432,49 +4426,49 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18">
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="2:5" ht="18">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="2:5" ht="18">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="2:5" ht="18">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" ht="18">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="2:5" ht="18">
+    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="5:5" ht="18">
+    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="5:5" ht="18">
+    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="5:5" ht="18">
+    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="5:5" ht="18">
+    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="5:5" ht="18">
+    <row r="22" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="5:5" ht="18">
+    <row r="24" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E24" s="32"/>
     </row>
   </sheetData>
@@ -4492,7 +4486,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
@@ -4501,125 +4495,125 @@
     <col min="6" max="6" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="198">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="198" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="82.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="165">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="148.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="82.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
